--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A09_01_従業員経費口座の銀行口座ID連携抽出_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A09_01_従業員経費口座の銀行口座ID連携抽出_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ2)" sheetId="10" r:id="rId7"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId8"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="12" r:id="rId9"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId10"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId11"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId11"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -31,11 +32,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="159">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -804,17 +806,195 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ5</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・前回処理実行日時取得</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・今回処理実行日時更新</t>
+    <rPh sb="21" eb="23">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_01を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_01(従業員経費口座の銀行口座ID連携抽出)</t>
+    <rPh sb="15" eb="18">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_01から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCMM002A09_01から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CMM_002_A09_01_従業員経費口座の銀行口座ID連携抽出_OIC統合_エビデンス(シナリオ5).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1175,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1045,7 +1240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1655,6 +1850,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1668,7 +1874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2026,6 +2232,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2071,6 +2295,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -5258,6 +5483,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30685740"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33387030"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29866590"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -5602,7 +6552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -5612,7 +6562,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5620,7 +6570,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5629,7 +6579,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5638,67 +6588,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="130" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="131" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="131" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="131" t="s">
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -5706,11 +6656,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -5718,23 +6668,23 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
@@ -5742,25 +6692,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -5772,7 +6722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -5800,12 +6750,305 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="72"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="77"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G14">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -5815,7 +7058,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5825,51 +7068,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="135" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="141" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="139" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="136"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="142"/>
       <c r="C6" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="144"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>72</v>
       </c>
@@ -5880,7 +7123,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -5889,7 +7132,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -5898,7 +7141,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -5907,7 +7150,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -5916,7 +7159,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -5925,7 +7168,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -5934,7 +7177,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -5943,7 +7186,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -5952,7 +7195,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -5961,7 +7204,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -5970,7 +7213,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -5979,7 +7222,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -5988,7 +7231,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -5997,7 +7240,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -6006,7 +7249,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -6015,7 +7258,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -6024,7 +7267,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -6054,14 +7297,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -6072,7 +7315,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -6081,25 +7324,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="111" t="s">
         <v>61</v>
@@ -6120,7 +7363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -6129,7 +7372,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6138,23 +7381,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="111" t="s">
         <v>61</v>
@@ -6175,7 +7418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -6184,7 +7427,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -6193,7 +7436,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -6202,7 +7445,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -6226,20 +7469,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6250,29 +7493,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="100" t="s">
         <v>10</v>
       </c>
@@ -6290,7 +7533,7 @@
       <c r="H7" s="102"/>
       <c r="I7" s="103"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="92">
         <v>44914</v>
       </c>
@@ -6308,7 +7551,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="93"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="92">
         <v>44984</v>
       </c>
@@ -6326,27 +7569,45 @@
       <c r="H9" s="23"/>
       <c r="I9" s="93"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="130">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="93"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6367,13 +7628,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6388,156 +7649,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -6555,13 +7816,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -6570,7 +7832,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -6578,7 +7840,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>73</v>
       </c>
@@ -6588,7 +7850,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -6596,7 +7858,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -6606,7 +7868,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -6614,7 +7876,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -6626,7 +7888,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -6638,7 +7900,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -6650,7 +7912,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -6662,7 +7924,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -6674,15 +7936,19 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="87"/>
+      <c r="D11" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>142</v>
+      </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -6690,7 +7956,7 @@
       <c r="E12" s="87"/>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -6698,7 +7964,7 @@
       <c r="E13" s="87"/>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -6706,7 +7972,7 @@
       <c r="E14" s="87"/>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -6714,7 +7980,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -6722,7 +7988,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="89"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -6730,7 +7996,7 @@
       <c r="E17" s="91"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="89"/>
       <c r="C18" s="89"/>
@@ -6738,7 +8004,7 @@
       <c r="E18" s="89"/>
       <c r="F18" s="89"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
       <c r="B19" s="89"/>
       <c r="C19" s="89"/>
@@ -6753,9 +8019,10 @@
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
+    <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -6772,7 +8039,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -6780,51 +8047,51 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="127" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" customHeight="1">
-      <c r="B7" s="132" t="s">
+    <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="132"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="138"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="128"/>
       <c r="C8" s="129"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="115" t="s">
         <v>78</v>
       </c>
@@ -6832,7 +8099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="117" customFormat="1" ht="21.75" thickBot="1">
+    <row r="12" spans="1:4" s="117" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="121" t="s">
         <v>96</v>
       </c>
@@ -6840,20 +8107,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="115" t="s">
         <v>78</v>
       </c>
@@ -6861,7 +8128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="32.25" thickBot="1">
+    <row r="17" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="121" t="s">
         <v>96</v>
       </c>
@@ -6869,20 +8136,20 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="14.25" thickBot="1">
+    <row r="20" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="14.25" thickBot="1">
+    <row r="21" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="115" t="s">
         <v>78</v>
       </c>
@@ -6890,7 +8157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="32.25" thickBot="1">
+    <row r="22" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="121" t="s">
         <v>96</v>
       </c>
@@ -6898,23 +8165,23 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
     </row>
@@ -6942,7 +8209,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -6955,7 +8222,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -6966,35 +8233,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>42</v>
       </c>
@@ -7020,7 +8287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>101</v>
@@ -7035,7 +8302,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="94.5">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>102</v>
@@ -7062,7 +8329,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -7083,7 +8350,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -7104,7 +8371,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="115.5">
+    <row r="15" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -7124,7 +8391,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="118"/>
       <c r="D16" s="46"/>
@@ -7134,7 +8401,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -7144,7 +8411,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -7154,7 +8421,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -7164,7 +8431,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -7174,7 +8441,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -7185,7 +8452,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -7196,7 +8463,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -7206,7 +8473,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -7217,7 +8484,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -7228,7 +8495,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -7238,7 +8505,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -7248,7 +8515,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -7258,7 +8525,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7268,7 +8535,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -7278,7 +8545,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -7288,7 +8555,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="118"/>
       <c r="D32" s="46"/>
@@ -7298,7 +8565,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -7308,7 +8575,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -7318,7 +8585,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -7328,7 +8595,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -7338,7 +8605,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -7348,7 +8615,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -7358,7 +8625,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -7368,7 +8635,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -7378,7 +8645,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>50</v>
       </c>
@@ -7388,7 +8655,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -7398,7 +8665,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="126" t="s">
         <v>88</v>
       </c>
@@ -7410,7 +8677,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -7420,7 +8687,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -7430,7 +8697,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -7440,7 +8707,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -7458,7 +8725,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7476,7 +8743,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -7489,7 +8756,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7500,35 +8767,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>42</v>
       </c>
@@ -7554,7 +8821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>106</v>
@@ -7569,7 +8836,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>107</v>
@@ -7596,7 +8863,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -7617,7 +8884,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -7638,7 +8905,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="115.5">
+    <row r="15" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -7658,7 +8925,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="118"/>
       <c r="D16" s="46"/>
@@ -7668,7 +8935,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -7678,7 +8945,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -7688,7 +8955,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -7698,7 +8965,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -7708,7 +8975,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -7718,7 +8985,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -7728,7 +8995,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -7738,7 +9005,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -7749,7 +9016,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -7760,7 +9027,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -7770,7 +9037,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -7781,7 +9048,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -7792,7 +9059,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7802,7 +9069,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -7812,7 +9079,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -7822,7 +9089,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -7832,7 +9099,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -7842,7 +9109,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -7852,7 +9119,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="118"/>
       <c r="D35" s="46"/>
@@ -7862,7 +9129,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -7872,7 +9139,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -7882,7 +9149,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -7892,7 +9159,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -7902,7 +9169,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -7912,7 +9179,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -7922,7 +9189,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -7932,7 +9199,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -7942,7 +9209,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>50</v>
       </c>
@@ -7952,7 +9219,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -7962,7 +9229,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -7972,7 +9239,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -7982,7 +9249,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -7992,7 +9259,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -8002,7 +9269,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -8020,7 +9287,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8038,7 +9305,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8051,7 +9318,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8062,35 +9329,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>42</v>
       </c>
@@ -8116,7 +9383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>108</v>
@@ -8131,7 +9398,7 @@
       <c r="H11" s="119"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>110</v>
       </c>
@@ -8157,7 +9424,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -8177,7 +9444,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -8197,7 +9464,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8217,7 +9484,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="120"/>
@@ -8237,7 +9504,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="120"/>
@@ -8247,7 +9514,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -8258,7 +9525,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -8269,7 +9536,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="120"/>
@@ -8279,7 +9546,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -8290,7 +9557,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -8301,7 +9568,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="120"/>
@@ -8311,7 +9578,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -8321,7 +9588,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -8331,7 +9598,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8341,7 +9608,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8351,7 +9618,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8361,7 +9628,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="118"/>
       <c r="D29" s="46"/>
@@ -8371,7 +9638,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8381,7 +9648,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -8391,7 +9658,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -8401,7 +9668,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -8411,7 +9678,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -8421,7 +9688,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -8431,7 +9698,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -8441,7 +9708,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -8451,7 +9718,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>50</v>
       </c>
@@ -8461,7 +9728,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -8471,7 +9738,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -8481,7 +9748,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -8491,7 +9758,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -8501,7 +9768,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -8511,7 +9778,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -8529,7 +9796,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8547,7 +9814,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8560,7 +9827,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8571,35 +9838,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>42</v>
       </c>
@@ -8625,7 +9892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>114</v>
@@ -8640,7 +9907,7 @@
       <c r="H11" s="119"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>115</v>
       </c>
@@ -8666,7 +9933,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -8686,7 +9953,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -8706,7 +9973,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8726,7 +9993,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="120"/>
@@ -8746,7 +10013,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="120"/>
@@ -8756,7 +10023,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="124"/>
       <c r="C18" s="46"/>
       <c r="D18" s="120"/>
@@ -8766,7 +10033,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="124"/>
       <c r="C19" s="46"/>
       <c r="D19" s="120"/>
@@ -8776,7 +10043,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="124"/>
       <c r="C20" s="46"/>
@@ -8787,7 +10054,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="124"/>
       <c r="C21" s="46"/>
@@ -8798,7 +10065,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="124"/>
       <c r="C22" s="46"/>
       <c r="D22" s="120"/>
@@ -8808,7 +10075,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="124"/>
       <c r="C23" s="46"/>
@@ -8819,7 +10086,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="124"/>
       <c r="C24" s="46"/>
@@ -8830,7 +10097,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="124"/>
       <c r="C25" s="46"/>
       <c r="D25" s="120"/>
@@ -8840,7 +10107,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="124"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8850,7 +10117,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8860,7 +10127,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8870,7 +10137,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -8880,7 +10147,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8890,7 +10157,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="118"/>
       <c r="D31" s="46"/>
@@ -8900,7 +10167,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -8910,7 +10177,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -8920,7 +10187,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -8930,7 +10197,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -8940,7 +10207,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -8950,7 +10217,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -8960,7 +10227,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -8970,7 +10237,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -8980,7 +10247,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>50</v>
       </c>
@@ -8990,7 +10257,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -9000,7 +10267,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -9010,7 +10277,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -9020,7 +10287,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -9030,7 +10297,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -9040,7 +10307,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -9058,7 +10325,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
